--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -107,9 +107,6 @@
     <t>Некорректный логин и пароль</t>
   </si>
   <si>
-    <t>Ошибка: Неправильный логин или пароль</t>
-  </si>
-  <si>
     <t>Навигация</t>
   </si>
   <si>
@@ -533,9 +530,6 @@
     <t>2. Нажать "Редактировать"</t>
   </si>
   <si>
-    <t>3. Нажать "Дабавить новость (+)"</t>
-  </si>
-  <si>
     <t>4. Выбрать категорию "Объявление"</t>
   </si>
   <si>
@@ -626,18 +620,6 @@
     <t>1. Ввести логин: login2</t>
   </si>
   <si>
-    <t>1. Ввести некорректный логин: 12345</t>
-  </si>
-  <si>
-    <t>2. Ввести некорректный пароль: 12345</t>
-  </si>
-  <si>
-    <t>2. Ввести неправильный пароль: ааааа</t>
-  </si>
-  <si>
-    <t>1. Ввести неправильный логин: SSSSS</t>
-  </si>
-  <si>
     <t>2. Ввести пароль: password2</t>
   </si>
   <si>
@@ -657,6 +639,24 @@
   </si>
   <si>
     <t>2. Нажать "Выйти"</t>
+  </si>
+  <si>
+    <t>1. Ввести некорректный логин: wrong_login</t>
+  </si>
+  <si>
+    <t>2. Ввести некорректный пароль: wrong_password</t>
+  </si>
+  <si>
+    <t>2. Ввести неправильный пароль: wrong_password</t>
+  </si>
+  <si>
+    <t>1. Ввести неправильный логин: wrong_login</t>
+  </si>
+  <si>
+    <t>Ошибка: Неверный логин или пароль</t>
+  </si>
+  <si>
+    <t>3. Нажать "Добавить новость (+)"</t>
   </si>
 </sst>
 </file>
@@ -810,28 +810,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -842,6 +833,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81:H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1153,31 +1153,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>5</v>
@@ -1191,7 +1191,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>6</v>
@@ -1200,19 +1200,19 @@
         <v>7</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>8</v>
@@ -1228,7 +1228,7 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="10"/>
@@ -1277,28 +1277,28 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="F6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>8</v>
@@ -1315,10 +1315,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>14</v>
@@ -1330,13 +1330,13 @@
         <v>15</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>8</v>
@@ -1352,7 +1352,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="10"/>
@@ -1368,7 +1368,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="10"/>
@@ -1384,7 +1384,7 @@
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="10"/>
@@ -1401,28 +1401,28 @@
         <v>12</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="H11" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>8</v>
@@ -1438,7 +1438,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="10"/>
@@ -1455,28 +1455,28 @@
         <v>12</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>8</v>
@@ -1492,7 +1492,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="10"/>
@@ -1508,7 +1508,7 @@
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="10"/>
@@ -1525,28 +1525,28 @@
         <v>12</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>8</v>
@@ -1578,7 +1578,7 @@
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="10"/>
@@ -1595,13 +1595,13 @@
         <v>12</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>22</v>
@@ -1610,13 +1610,13 @@
         <v>23</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>8</v>
@@ -1632,7 +1632,7 @@
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="10"/>
@@ -1648,7 +1648,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="10"/>
@@ -1665,28 +1665,28 @@
         <v>12</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>23</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>8</v>
@@ -1718,7 +1718,7 @@
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="10"/>
@@ -1727,7 +1727,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>9</v>
       </c>
@@ -1735,28 +1735,28 @@
         <v>12</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>8</v>
@@ -1765,14 +1765,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="9" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="10"/>
@@ -1788,7 +1788,7 @@
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="10"/>
@@ -1797,7 +1797,7 @@
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
     </row>
-    <row r="28" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>10</v>
       </c>
@@ -1805,28 +1805,28 @@
         <v>12</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>8</v>
@@ -1835,14 +1835,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="10"/>
@@ -1858,7 +1858,7 @@
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="10"/>
@@ -1867,7 +1867,7 @@
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>11</v>
       </c>
@@ -1875,28 +1875,28 @@
         <v>12</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>8</v>
@@ -1912,7 +1912,7 @@
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="10"/>
@@ -1928,7 +1928,7 @@
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="10"/>
@@ -1945,28 +1945,28 @@
         <v>12</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D34" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>23</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>8</v>
@@ -1982,7 +1982,7 @@
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="10"/>
@@ -1998,7 +1998,7 @@
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="10"/>
@@ -2015,28 +2015,28 @@
         <v>12</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>23</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>8</v>
@@ -2052,7 +2052,7 @@
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="10"/>
@@ -2068,7 +2068,7 @@
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="10"/>
@@ -2085,28 +2085,28 @@
         <v>12</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>23</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>8</v>
@@ -2122,7 +2122,7 @@
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="10"/>
@@ -2139,28 +2139,28 @@
         <v>12</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D42" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G42" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>82</v>
-      </c>
       <c r="H42" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K42" s="10" t="s">
         <v>8</v>
@@ -2176,7 +2176,7 @@
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="10"/>
@@ -2192,7 +2192,7 @@
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="10"/>
@@ -2209,28 +2209,28 @@
         <v>12</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G45" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="H45" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K45" s="10" t="s">
         <v>8</v>
@@ -2246,7 +2246,7 @@
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="6" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="10"/>
@@ -2262,7 +2262,7 @@
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="10"/>
@@ -2276,31 +2276,31 @@
         <v>17</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="G48" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>8</v>
@@ -2314,31 +2314,31 @@
         <v>18</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>11</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K49" s="10" t="s">
         <v>8</v>
@@ -2354,7 +2354,7 @@
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G50" s="12"/>
       <c r="H50" s="10"/>
@@ -2368,34 +2368,34 @@
         <v>19</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>11</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>8</v>
@@ -2408,7 +2408,7 @@
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="10"/>
@@ -2422,31 +2422,31 @@
         <v>20</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F53" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="H53" s="2" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>8</v>
@@ -2460,31 +2460,31 @@
         <v>21</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F54" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="H54" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>8</v>
@@ -2498,31 +2498,31 @@
         <v>22</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>11</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K55" s="10" t="s">
         <v>8</v>
@@ -2538,7 +2538,7 @@
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G56" s="12"/>
       <c r="H56" s="10"/>
@@ -2552,31 +2552,31 @@
         <v>23</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>11</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K57" s="10" t="s">
         <v>8</v>
@@ -2592,7 +2592,7 @@
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="10"/>
@@ -2606,31 +2606,31 @@
         <v>24</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>11</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K59" s="10" t="s">
         <v>8</v>
@@ -2646,7 +2646,7 @@
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="10"/>
@@ -2656,35 +2656,35 @@
       <c r="L60" s="10"/>
     </row>
     <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="22">
+      <c r="A61" s="19">
         <v>25</v>
       </c>
-      <c r="B61" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="E61" s="15" t="s">
+      <c r="B61" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="I61" s="13" t="s">
         <v>11</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K61" s="13" t="s">
         <v>8</v>
@@ -2694,147 +2694,147 @@
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
       <c r="F62" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+    </row>
+    <row r="63" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="20"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+    </row>
+    <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="20"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-    </row>
-    <row r="63" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="9" t="s">
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+    </row>
+    <row r="65" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="20"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-    </row>
-    <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="23"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="9" t="s">
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+    </row>
+    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="20"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-    </row>
-    <row r="65" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="9" t="s">
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+    </row>
+    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="20"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-    </row>
-    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="23"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="9" t="s">
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+    </row>
+    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="21"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-    </row>
-    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-    </row>
-    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="24"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="9" t="s">
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+    </row>
+    <row r="69" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="19">
+        <v>25</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G69" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-    </row>
-    <row r="69" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="22">
-        <v>25</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="H69" s="13" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="I69" s="13" t="s">
         <v>11</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K69" s="13" t="s">
         <v>8</v>
@@ -2844,147 +2844,147 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="23"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
       <c r="F70" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+    </row>
+    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="20"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+    </row>
+    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="20"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-    </row>
-    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="23"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="9" t="s">
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+    </row>
+    <row r="73" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="20"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-    </row>
-    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="23"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="9" t="s">
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+    </row>
+    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="20"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-    </row>
-    <row r="73" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="23"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-    </row>
-    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="23"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="9" t="s">
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+    </row>
+    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="20"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+    </row>
+    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="21"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-    </row>
-    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="23"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-    </row>
-    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="24"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="9" t="s">
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+    </row>
+    <row r="77" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="19">
+        <v>26</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G77" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-    </row>
-    <row r="77" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="22">
-        <v>26</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="H77" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I77" s="13" t="s">
         <v>11</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K77" s="13" t="s">
         <v>8</v>
@@ -2994,83 +2994,83 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="23"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
       <c r="F78" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
+        <v>167</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
     </row>
     <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="23"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
       <c r="F79" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
+        <v>210</v>
+      </c>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
     </row>
     <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="24"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
       <c r="F80" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
+        <v>175</v>
+      </c>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
     </row>
     <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="22">
+      <c r="A81" s="19">
         <v>27</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D81" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C81" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D81" s="15" t="s">
+      <c r="E81" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G81" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E81" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="H81" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I81" s="13" t="s">
         <v>11</v>
       </c>
       <c r="J81" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K81" s="13" t="s">
         <v>8</v>
@@ -3080,83 +3080,83 @@
       </c>
     </row>
     <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="23"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
       <c r="F82" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="19"/>
+        <v>167</v>
+      </c>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
     </row>
     <row r="83" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A83" s="23"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
       <c r="F83" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="19"/>
-      <c r="L83" s="19"/>
+        <v>181</v>
+      </c>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
     </row>
     <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="24"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
       <c r="F84" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
-      <c r="L84" s="14"/>
+        <v>175</v>
+      </c>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
     </row>
     <row r="85" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="22">
+      <c r="A85" s="19">
         <v>28</v>
       </c>
-      <c r="B85" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E85" s="15" t="s">
+      <c r="B85" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F85" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F85" s="9" t="s">
-        <v>109</v>
-      </c>
       <c r="G85" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="I85" s="13" t="s">
         <v>11</v>
       </c>
       <c r="J85" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K85" s="13" t="s">
         <v>8</v>
@@ -3166,67 +3166,67 @@
       </c>
     </row>
     <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="23"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="21"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="17"/>
       <c r="F86" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
+        <v>176</v>
+      </c>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
     </row>
     <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="24"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="16"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="18"/>
       <c r="F87" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14"/>
+        <v>177</v>
+      </c>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
     </row>
     <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="22">
+      <c r="A88" s="19">
         <v>29</v>
       </c>
-      <c r="B88" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E88" s="17" t="s">
+      <c r="B88" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F88" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F88" s="9" t="s">
-        <v>109</v>
-      </c>
       <c r="G88" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I88" s="13" t="s">
         <v>19</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K88" s="13" t="s">
         <v>8</v>
@@ -3236,83 +3236,83 @@
       </c>
     </row>
     <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="23"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
+      <c r="A89" s="20"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
       <c r="F89" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="19"/>
-      <c r="K89" s="19"/>
-      <c r="L89" s="19"/>
+        <v>167</v>
+      </c>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
     </row>
     <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="23"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
+      <c r="A90" s="20"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
       <c r="F90" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="19"/>
+        <v>179</v>
+      </c>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
     </row>
     <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="24"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
       <c r="F91" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14"/>
-      <c r="K91" s="14"/>
-      <c r="L91" s="14"/>
+        <v>175</v>
+      </c>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
     </row>
     <row r="92" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="22">
+      <c r="A92" s="19">
         <v>30</v>
       </c>
-      <c r="B92" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="E92" s="15" t="s">
+      <c r="B92" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E92" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G92" s="15" t="s">
-        <v>188</v>
+        <v>49</v>
+      </c>
+      <c r="G92" s="16" t="s">
+        <v>186</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I92" s="13" t="s">
         <v>19</v>
       </c>
       <c r="J92" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K92" s="13" t="s">
         <v>8</v>
@@ -3322,99 +3322,99 @@
       </c>
     </row>
     <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="23"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
       <c r="F93" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="G93" s="21"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="19"/>
-      <c r="K93" s="19"/>
-      <c r="L93" s="19"/>
+        <v>167</v>
+      </c>
+      <c r="G93" s="17"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14"/>
     </row>
     <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="23"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
       <c r="F94" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G94" s="17"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+    </row>
+    <row r="95" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="20"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G95" s="17"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+    </row>
+    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="21"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G94" s="21"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="19"/>
-      <c r="K94" s="19"/>
-      <c r="L94" s="19"/>
-    </row>
-    <row r="95" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A95" s="23"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="G95" s="21"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="19"/>
-      <c r="K95" s="19"/>
-      <c r="L95" s="19"/>
-    </row>
-    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="24"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G96" s="16"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
-      <c r="K96" s="14"/>
-      <c r="L96" s="14"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
     </row>
     <row r="97" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="22">
+      <c r="A97" s="19">
         <v>31</v>
       </c>
-      <c r="B97" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="E97" s="15" t="s">
+      <c r="B97" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E97" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I97" s="13" t="s">
         <v>19</v>
       </c>
       <c r="J97" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K97" s="13" t="s">
         <v>8</v>
@@ -3424,99 +3424,99 @@
       </c>
     </row>
     <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="23"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="21"/>
-      <c r="E98" s="21"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
       <c r="F98" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="G98" s="19"/>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="19"/>
-      <c r="K98" s="19"/>
-      <c r="L98" s="19"/>
+        <v>167</v>
+      </c>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
+      <c r="K98" s="14"/>
+      <c r="L98" s="14"/>
     </row>
     <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="23"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="21"/>
+      <c r="A99" s="20"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
       <c r="F99" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="14"/>
+    </row>
+    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="20"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="14"/>
+      <c r="L100" s="14"/>
+    </row>
+    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="21"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="19"/>
-      <c r="K99" s="19"/>
-      <c r="L99" s="19"/>
-    </row>
-    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="23"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="21"/>
-      <c r="F100" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="19"/>
-      <c r="K100" s="19"/>
-      <c r="L100" s="19"/>
-    </row>
-    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="24"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
-      <c r="K101" s="14"/>
-      <c r="L101" s="14"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
     </row>
     <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="22">
+      <c r="A102" s="19">
         <v>32</v>
       </c>
-      <c r="B102" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D102" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="E102" s="15" t="s">
+      <c r="B102" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E102" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I102" s="13" t="s">
         <v>19</v>
       </c>
       <c r="J102" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K102" s="13" t="s">
         <v>8</v>
@@ -3526,67 +3526,67 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="23"/>
-      <c r="B103" s="21"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="21"/>
+      <c r="A103" s="20"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
       <c r="F103" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="19"/>
-      <c r="K103" s="19"/>
-      <c r="L103" s="19"/>
+        <v>167</v>
+      </c>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="14"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="14"/>
     </row>
     <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="24"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
+      <c r="A104" s="21"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
       <c r="F104" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="14"/>
-      <c r="K104" s="14"/>
-      <c r="L104" s="14"/>
+        <v>189</v>
+      </c>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="15"/>
+      <c r="L104" s="15"/>
     </row>
     <row r="105" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="22">
+      <c r="A105" s="19">
         <v>33</v>
       </c>
-      <c r="B105" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D105" s="15" t="s">
-        <v>162</v>
+      <c r="B105" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D105" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="E105" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I105" s="13" t="s">
         <v>19</v>
       </c>
       <c r="J105" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K105" s="13" t="s">
         <v>8</v>
@@ -3596,99 +3596,99 @@
       </c>
     </row>
     <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="23"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="21"/>
-      <c r="D106" s="21"/>
-      <c r="E106" s="19"/>
+      <c r="A106" s="20"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="14"/>
       <c r="F106" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="G106" s="19"/>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="19"/>
-      <c r="K106" s="19"/>
-      <c r="L106" s="19"/>
+        <v>167</v>
+      </c>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="14"/>
+      <c r="L106" s="14"/>
     </row>
     <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="23"/>
-      <c r="B107" s="21"/>
-      <c r="C107" s="21"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="19"/>
+      <c r="A107" s="20"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="14"/>
       <c r="F107" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
+      <c r="J107" s="14"/>
+      <c r="K107" s="14"/>
+      <c r="L107" s="14"/>
+    </row>
+    <row r="108" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A108" s="20"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
+      <c r="J108" s="14"/>
+      <c r="K108" s="14"/>
+      <c r="L108" s="14"/>
+    </row>
+    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="21"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G107" s="19"/>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="19"/>
-      <c r="K107" s="19"/>
-      <c r="L107" s="19"/>
-    </row>
-    <row r="108" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A108" s="23"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="21"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="19"/>
-      <c r="K108" s="19"/>
-      <c r="L108" s="19"/>
-    </row>
-    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="24"/>
-      <c r="B109" s="16"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G109" s="14"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="14"/>
-      <c r="K109" s="14"/>
-      <c r="L109" s="14"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="15"/>
+      <c r="L109" s="15"/>
     </row>
     <row r="110" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="22">
+      <c r="A110" s="19">
         <v>34</v>
       </c>
-      <c r="B110" s="17" t="s">
+      <c r="B110" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D110" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C110" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E110" s="17" t="s">
+      <c r="E110" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G110" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="F110" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G110" s="15" t="s">
-        <v>112</v>
-      </c>
       <c r="H110" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I110" s="13" t="s">
         <v>19</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K110" s="13" t="s">
         <v>8</v>
@@ -3698,67 +3698,67 @@
       </c>
     </row>
     <row r="111" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="23"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
+      <c r="A111" s="20"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
       <c r="F111" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G111" s="21"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="19"/>
-      <c r="K111" s="19"/>
-      <c r="L111" s="19"/>
+        <v>98</v>
+      </c>
+      <c r="G111" s="17"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="14"/>
+      <c r="K111" s="14"/>
+      <c r="L111" s="14"/>
     </row>
     <row r="112" spans="1:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="24"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
+      <c r="A112" s="21"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
       <c r="F112" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G112" s="16"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="14"/>
-      <c r="K112" s="14"/>
-      <c r="L112" s="14"/>
+        <v>196</v>
+      </c>
+      <c r="G112" s="18"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="15"/>
+      <c r="K112" s="15"/>
+      <c r="L112" s="15"/>
     </row>
     <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="11">
         <v>35</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E113" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I113" s="10" t="s">
         <v>11</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K113" s="10" t="s">
         <v>8</v>
@@ -3774,7 +3774,7 @@
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
       <c r="F114" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G114" s="12"/>
       <c r="H114" s="10"/>
@@ -3790,7 +3790,7 @@
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
       <c r="F115" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G115" s="12"/>
       <c r="H115" s="10"/>
@@ -3804,34 +3804,34 @@
         <v>36</v>
       </c>
       <c r="B116" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D116" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I116" s="10" t="s">
         <v>11</v>
       </c>
       <c r="J116" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K116" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="K116" s="10" t="s">
-        <v>121</v>
       </c>
       <c r="L116" s="10" t="s">
         <v>8</v>
@@ -3844,7 +3844,7 @@
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
       <c r="F117" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G117" s="12"/>
       <c r="H117" s="10"/>
@@ -3858,34 +3858,34 @@
         <v>37</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I118" s="10" t="s">
         <v>11</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K118" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L118" s="10" t="s">
         <v>8</v>
@@ -3898,7 +3898,7 @@
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G119" s="12"/>
       <c r="H119" s="10"/>
@@ -3909,27 +3909,10 @@
     </row>
   </sheetData>
   <mergeCells count="374">
-    <mergeCell ref="K105:K109"/>
-    <mergeCell ref="L105:L109"/>
-    <mergeCell ref="K102:K104"/>
-    <mergeCell ref="L102:L104"/>
-    <mergeCell ref="K97:K101"/>
-    <mergeCell ref="L97:L101"/>
-    <mergeCell ref="K92:K96"/>
-    <mergeCell ref="L92:L96"/>
     <mergeCell ref="A92:A96"/>
     <mergeCell ref="A97:A101"/>
     <mergeCell ref="A102:A104"/>
     <mergeCell ref="A105:A109"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="H110:H112"/>
-    <mergeCell ref="I110:I112"/>
-    <mergeCell ref="J110:J112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="A110:A112"/>
     <mergeCell ref="J92:J96"/>
     <mergeCell ref="J97:J101"/>
     <mergeCell ref="J102:J104"/>
@@ -3942,11 +3925,6 @@
     <mergeCell ref="I102:I104"/>
     <mergeCell ref="C102:C104"/>
     <mergeCell ref="B102:B104"/>
-    <mergeCell ref="G105:G109"/>
-    <mergeCell ref="H105:H109"/>
-    <mergeCell ref="I105:I109"/>
-    <mergeCell ref="E105:E109"/>
-    <mergeCell ref="D105:D109"/>
     <mergeCell ref="C105:C109"/>
     <mergeCell ref="B105:B109"/>
     <mergeCell ref="G92:G96"/>
@@ -3962,21 +3940,23 @@
     <mergeCell ref="E97:E101"/>
     <mergeCell ref="E102:E104"/>
     <mergeCell ref="D102:D104"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="G81:G84"/>
-    <mergeCell ref="H81:H84"/>
-    <mergeCell ref="I81:I84"/>
-    <mergeCell ref="J81:J84"/>
     <mergeCell ref="K81:K84"/>
     <mergeCell ref="L81:L84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="G88:G91"/>
-    <mergeCell ref="H88:H91"/>
-    <mergeCell ref="I88:I91"/>
-    <mergeCell ref="J88:J91"/>
+    <mergeCell ref="E81:E84"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="G105:G109"/>
+    <mergeCell ref="H105:H109"/>
+    <mergeCell ref="I105:I109"/>
+    <mergeCell ref="E105:E109"/>
+    <mergeCell ref="D105:D109"/>
+    <mergeCell ref="K105:K109"/>
+    <mergeCell ref="L105:L109"/>
+    <mergeCell ref="K102:K104"/>
+    <mergeCell ref="L102:L104"/>
+    <mergeCell ref="K97:K101"/>
+    <mergeCell ref="L97:L101"/>
+    <mergeCell ref="K92:K96"/>
+    <mergeCell ref="L92:L96"/>
     <mergeCell ref="K88:K91"/>
     <mergeCell ref="L88:L91"/>
     <mergeCell ref="E88:E91"/>
@@ -3993,17 +3973,22 @@
     <mergeCell ref="E85:E87"/>
     <mergeCell ref="D85:D87"/>
     <mergeCell ref="C85:C87"/>
-    <mergeCell ref="E81:E84"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="G61:G68"/>
-    <mergeCell ref="H61:H68"/>
-    <mergeCell ref="I61:I68"/>
-    <mergeCell ref="J61:J68"/>
-    <mergeCell ref="K61:K68"/>
-    <mergeCell ref="L61:L68"/>
     <mergeCell ref="E61:E68"/>
     <mergeCell ref="D61:D68"/>
     <mergeCell ref="C61:C68"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="H88:H91"/>
+    <mergeCell ref="I88:I91"/>
+    <mergeCell ref="J88:J91"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="G81:G84"/>
+    <mergeCell ref="H81:H84"/>
+    <mergeCell ref="I81:I84"/>
+    <mergeCell ref="J81:J84"/>
     <mergeCell ref="G118:G119"/>
     <mergeCell ref="H118:H119"/>
     <mergeCell ref="I118:I119"/>
@@ -4039,7 +4024,15 @@
     <mergeCell ref="C113:C115"/>
     <mergeCell ref="D113:D115"/>
     <mergeCell ref="E113:E115"/>
-    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="H110:H112"/>
+    <mergeCell ref="I110:I112"/>
+    <mergeCell ref="J110:J112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="A110:A112"/>
     <mergeCell ref="I59:I60"/>
     <mergeCell ref="J59:J60"/>
     <mergeCell ref="K59:K60"/>
@@ -4051,6 +4044,12 @@
     <mergeCell ref="J69:J76"/>
     <mergeCell ref="K69:K76"/>
     <mergeCell ref="L69:L76"/>
+    <mergeCell ref="G61:G68"/>
+    <mergeCell ref="H61:H68"/>
+    <mergeCell ref="I61:I68"/>
+    <mergeCell ref="J61:J68"/>
+    <mergeCell ref="K61:K68"/>
+    <mergeCell ref="L61:L68"/>
     <mergeCell ref="G77:G80"/>
     <mergeCell ref="H77:H80"/>
     <mergeCell ref="I77:I80"/>
@@ -4074,6 +4073,7 @@
     <mergeCell ref="C77:C80"/>
     <mergeCell ref="B77:B80"/>
     <mergeCell ref="A77:A80"/>
+    <mergeCell ref="H59:H60"/>
     <mergeCell ref="H57:H58"/>
     <mergeCell ref="I57:I58"/>
     <mergeCell ref="J57:J58"/>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -798,14 +798,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -825,15 +825,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -842,6 +833,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81:H84"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81:D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1184,90 +1184,90 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="K2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -1308,968 +1308,968 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="24">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="10" t="s">
+      <c r="K7" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="24">
         <v>4</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="22" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="10" t="s">
+      <c r="K11" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="A13" s="24">
         <v>5</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="22" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="10" t="s">
+      <c r="K13" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="A16" s="24">
         <v>6</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="22" t="s">
         <v>70</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L16" s="10" t="s">
+      <c r="K16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="A19" s="24">
         <v>7</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="22" t="s">
         <v>70</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L19" s="10" t="s">
+      <c r="K19" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
     </row>
     <row r="22" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
-        <v>8</v>
-      </c>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="24">
+        <v>8</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="22" t="s">
         <v>70</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K22" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="10" t="s">
+      <c r="K22" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
     </row>
     <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
     </row>
     <row r="25" spans="1:12" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+      <c r="A25" s="24">
         <v>9</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="22" t="s">
         <v>70</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" s="10" t="s">
+      <c r="K25" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
     </row>
     <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
     </row>
     <row r="28" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
+      <c r="A28" s="24">
         <v>10</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="22" t="s">
         <v>70</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K28" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L28" s="10" t="s">
+      <c r="K28" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
     </row>
     <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
     </row>
     <row r="31" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
+      <c r="A31" s="24">
         <v>11</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="22" t="s">
         <v>70</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K31" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L31" s="10" t="s">
+      <c r="K31" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
     </row>
     <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
       <c r="F33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
     </row>
     <row r="34" spans="1:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
+      <c r="A34" s="24">
         <v>12</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="22" t="s">
         <v>70</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K34" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L34" s="10" t="s">
+      <c r="K34" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L34" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
       <c r="F35" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
     </row>
     <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
     </row>
     <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
+      <c r="A37" s="24">
         <v>13</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="22" t="s">
         <v>70</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K37" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L37" s="10" t="s">
+      <c r="K37" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
       <c r="F38" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
     </row>
     <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
       <c r="F39" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
     </row>
     <row r="40" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11">
+      <c r="A40" s="24">
         <v>14</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="22" t="s">
         <v>70</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="I40" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="J40" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K40" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L40" s="10" t="s">
+      <c r="K40" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
       <c r="F41" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
     </row>
     <row r="42" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11">
+      <c r="A42" s="24">
         <v>15</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="22" t="s">
         <v>70</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="J42" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K42" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" s="10" t="s">
+      <c r="K42" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
       <c r="F43" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
     </row>
     <row r="44" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
       <c r="F44" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
     </row>
     <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="11">
+      <c r="A45" s="24">
         <v>16</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="22" t="s">
         <v>70</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="G45" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="I45" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="J45" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K45" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="10" t="s">
+      <c r="K45" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
       <c r="F46" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
     </row>
     <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
       <c r="F47" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
     </row>
     <row r="48" spans="1:12" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
@@ -2310,112 +2310,112 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11">
+      <c r="A49" s="24">
         <v>18</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="22" t="s">
         <v>17</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G49" s="12" t="s">
+      <c r="G49" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="H49" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="I49" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="J49" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K49" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="10" t="s">
+      <c r="K49" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
       <c r="F50" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G50" s="12"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
     </row>
     <row r="51" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11">
+      <c r="A51" s="24">
         <v>19</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="22" t="s">
         <v>17</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G51" s="12" t="s">
+      <c r="G51" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="H51" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="I51" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="J51" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="K51" s="10" t="s">
+      <c r="K51" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="L51" s="10" t="s">
+      <c r="L51" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
       <c r="F52" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G52" s="12"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
     </row>
     <row r="53" spans="1:12" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
@@ -2494,169 +2494,169 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11">
+      <c r="A55" s="24">
         <v>22</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="22" t="s">
         <v>17</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G55" s="12" t="s">
+      <c r="G55" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H55" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="I55" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J55" s="10" t="s">
+      <c r="J55" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K55" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L55" s="10" t="s">
+      <c r="K55" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L55" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
       <c r="F56" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G56" s="12"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
     </row>
     <row r="57" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="11">
+      <c r="A57" s="24">
         <v>23</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="22" t="s">
         <v>17</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G57" s="12" t="s">
+      <c r="G57" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H57" s="10" t="s">
+      <c r="H57" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="I57" s="10" t="s">
+      <c r="I57" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J57" s="10" t="s">
+      <c r="J57" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K57" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="10" t="s">
+      <c r="K57" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
       <c r="F58" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G58" s="12"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
     </row>
     <row r="59" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="11">
+      <c r="A59" s="24">
         <v>24</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="22" t="s">
         <v>17</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G59" s="12" t="s">
+      <c r="G59" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="H59" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I59" s="10" t="s">
+      <c r="I59" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J59" s="10" t="s">
+      <c r="J59" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K59" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="10" t="s">
+      <c r="K59" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="11"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
       <c r="F60" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
     </row>
     <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="19">
+      <c r="A61" s="10">
         <v>25</v>
       </c>
       <c r="B61" s="16" t="s">
@@ -2694,7 +2694,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="20"/>
+      <c r="A62" s="11"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -2710,7 +2710,7 @@
       <c r="L62" s="14"/>
     </row>
     <row r="63" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="20"/>
+      <c r="A63" s="11"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
@@ -2726,7 +2726,7 @@
       <c r="L63" s="14"/>
     </row>
     <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="20"/>
+      <c r="A64" s="11"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
@@ -2742,7 +2742,7 @@
       <c r="L64" s="14"/>
     </row>
     <row r="65" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="20"/>
+      <c r="A65" s="11"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
@@ -2758,7 +2758,7 @@
       <c r="L65" s="14"/>
     </row>
     <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="20"/>
+      <c r="A66" s="11"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
@@ -2774,7 +2774,7 @@
       <c r="L66" s="14"/>
     </row>
     <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="20"/>
+      <c r="A67" s="11"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
@@ -2790,7 +2790,7 @@
       <c r="L67" s="14"/>
     </row>
     <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="21"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
       <c r="D68" s="18"/>
@@ -2806,7 +2806,7 @@
       <c r="L68" s="15"/>
     </row>
     <row r="69" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="19">
+      <c r="A69" s="10">
         <v>25</v>
       </c>
       <c r="B69" s="16" t="s">
@@ -2844,7 +2844,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="20"/>
+      <c r="A70" s="11"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
@@ -2860,7 +2860,7 @@
       <c r="L70" s="14"/>
     </row>
     <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="20"/>
+      <c r="A71" s="11"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
@@ -2876,7 +2876,7 @@
       <c r="L71" s="14"/>
     </row>
     <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="20"/>
+      <c r="A72" s="11"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
@@ -2892,7 +2892,7 @@
       <c r="L72" s="14"/>
     </row>
     <row r="73" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="20"/>
+      <c r="A73" s="11"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -2908,7 +2908,7 @@
       <c r="L73" s="14"/>
     </row>
     <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="20"/>
+      <c r="A74" s="11"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
@@ -2924,7 +2924,7 @@
       <c r="L74" s="14"/>
     </row>
     <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="20"/>
+      <c r="A75" s="11"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -2940,7 +2940,7 @@
       <c r="L75" s="14"/>
     </row>
     <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="21"/>
+      <c r="A76" s="12"/>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
       <c r="D76" s="18"/>
@@ -2956,7 +2956,7 @@
       <c r="L76" s="15"/>
     </row>
     <row r="77" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="19">
+      <c r="A77" s="10">
         <v>26</v>
       </c>
       <c r="B77" s="16" t="s">
@@ -2994,7 +2994,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="20"/>
+      <c r="A78" s="11"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
@@ -3010,7 +3010,7 @@
       <c r="L78" s="14"/>
     </row>
     <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="20"/>
+      <c r="A79" s="11"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="17"/>
@@ -3026,7 +3026,7 @@
       <c r="L79" s="14"/>
     </row>
     <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="21"/>
+      <c r="A80" s="12"/>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
       <c r="D80" s="18"/>
@@ -3042,7 +3042,7 @@
       <c r="L80" s="15"/>
     </row>
     <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="19">
+      <c r="A81" s="10">
         <v>27</v>
       </c>
       <c r="B81" s="16" t="s">
@@ -3080,7 +3080,7 @@
       </c>
     </row>
     <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="20"/>
+      <c r="A82" s="11"/>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
@@ -3096,7 +3096,7 @@
       <c r="L82" s="14"/>
     </row>
     <row r="83" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A83" s="20"/>
+      <c r="A83" s="11"/>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
@@ -3112,7 +3112,7 @@
       <c r="L83" s="14"/>
     </row>
     <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="21"/>
+      <c r="A84" s="12"/>
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
       <c r="D84" s="18"/>
@@ -3128,16 +3128,16 @@
       <c r="L84" s="15"/>
     </row>
     <row r="85" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="19">
+      <c r="A85" s="10">
         <v>28</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="D85" s="22" t="s">
+      <c r="D85" s="19" t="s">
         <v>54</v>
       </c>
       <c r="E85" s="16" t="s">
@@ -3166,10 +3166,10 @@
       </c>
     </row>
     <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="20"/>
-      <c r="B86" s="23"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="20"/>
       <c r="C86" s="17"/>
-      <c r="D86" s="23"/>
+      <c r="D86" s="20"/>
       <c r="E86" s="17"/>
       <c r="F86" s="9" t="s">
         <v>176</v>
@@ -3182,10 +3182,10 @@
       <c r="L86" s="14"/>
     </row>
     <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="21"/>
-      <c r="B87" s="24"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="21"/>
       <c r="C87" s="18"/>
-      <c r="D87" s="24"/>
+      <c r="D87" s="21"/>
       <c r="E87" s="18"/>
       <c r="F87" s="9" t="s">
         <v>177</v>
@@ -3198,19 +3198,19 @@
       <c r="L87" s="15"/>
     </row>
     <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="19">
+      <c r="A88" s="10">
         <v>29</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D88" s="22" t="s">
+      <c r="D88" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E88" s="22" t="s">
+      <c r="E88" s="19" t="s">
         <v>107</v>
       </c>
       <c r="F88" s="9" t="s">
@@ -3236,11 +3236,11 @@
       </c>
     </row>
     <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="20"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
       <c r="F89" s="9" t="s">
         <v>167</v>
       </c>
@@ -3252,11 +3252,11 @@
       <c r="L89" s="14"/>
     </row>
     <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="20"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
       <c r="F90" s="9" t="s">
         <v>179</v>
       </c>
@@ -3268,11 +3268,11 @@
       <c r="L90" s="14"/>
     </row>
     <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="21"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
+      <c r="A91" s="12"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
       <c r="F91" s="9" t="s">
         <v>175</v>
       </c>
@@ -3284,7 +3284,7 @@
       <c r="L91" s="15"/>
     </row>
     <row r="92" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="19">
+      <c r="A92" s="10">
         <v>30</v>
       </c>
       <c r="B92" s="16" t="s">
@@ -3322,7 +3322,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="20"/>
+      <c r="A93" s="11"/>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -3338,7 +3338,7 @@
       <c r="L93" s="14"/>
     </row>
     <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="20"/>
+      <c r="A94" s="11"/>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
@@ -3354,7 +3354,7 @@
       <c r="L94" s="14"/>
     </row>
     <row r="95" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A95" s="20"/>
+      <c r="A95" s="11"/>
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
@@ -3370,7 +3370,7 @@
       <c r="L95" s="14"/>
     </row>
     <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="21"/>
+      <c r="A96" s="12"/>
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
       <c r="D96" s="18"/>
@@ -3386,7 +3386,7 @@
       <c r="L96" s="15"/>
     </row>
     <row r="97" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="19">
+      <c r="A97" s="10">
         <v>31</v>
       </c>
       <c r="B97" s="16" t="s">
@@ -3424,7 +3424,7 @@
       </c>
     </row>
     <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="20"/>
+      <c r="A98" s="11"/>
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
@@ -3440,7 +3440,7 @@
       <c r="L98" s="14"/>
     </row>
     <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="20"/>
+      <c r="A99" s="11"/>
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
@@ -3456,7 +3456,7 @@
       <c r="L99" s="14"/>
     </row>
     <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="20"/>
+      <c r="A100" s="11"/>
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
@@ -3472,7 +3472,7 @@
       <c r="L100" s="14"/>
     </row>
     <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="21"/>
+      <c r="A101" s="12"/>
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
@@ -3488,7 +3488,7 @@
       <c r="L101" s="15"/>
     </row>
     <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="19">
+      <c r="A102" s="10">
         <v>32</v>
       </c>
       <c r="B102" s="16" t="s">
@@ -3526,7 +3526,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="20"/>
+      <c r="A103" s="11"/>
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -3542,7 +3542,7 @@
       <c r="L103" s="14"/>
     </row>
     <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="21"/>
+      <c r="A104" s="12"/>
       <c r="B104" s="18"/>
       <c r="C104" s="18"/>
       <c r="D104" s="18"/>
@@ -3558,7 +3558,7 @@
       <c r="L104" s="15"/>
     </row>
     <row r="105" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="19">
+      <c r="A105" s="10">
         <v>33</v>
       </c>
       <c r="B105" s="16" t="s">
@@ -3596,7 +3596,7 @@
       </c>
     </row>
     <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="20"/>
+      <c r="A106" s="11"/>
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
@@ -3612,7 +3612,7 @@
       <c r="L106" s="14"/>
     </row>
     <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="20"/>
+      <c r="A107" s="11"/>
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
@@ -3628,7 +3628,7 @@
       <c r="L107" s="14"/>
     </row>
     <row r="108" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A108" s="20"/>
+      <c r="A108" s="11"/>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
@@ -3644,7 +3644,7 @@
       <c r="L108" s="14"/>
     </row>
     <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="21"/>
+      <c r="A109" s="12"/>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
       <c r="D109" s="18"/>
@@ -3660,19 +3660,19 @@
       <c r="L109" s="15"/>
     </row>
     <row r="110" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="19">
+      <c r="A110" s="10">
         <v>34</v>
       </c>
-      <c r="B110" s="22" t="s">
+      <c r="B110" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C110" s="22" t="s">
+      <c r="C110" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="D110" s="22" t="s">
+      <c r="D110" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E110" s="22" t="s">
+      <c r="E110" s="19" t="s">
         <v>110</v>
       </c>
       <c r="F110" s="9" t="s">
@@ -3698,11 +3698,11 @@
       </c>
     </row>
     <row r="111" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="20"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
+      <c r="A111" s="11"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
       <c r="F111" s="6" t="s">
         <v>98</v>
       </c>
@@ -3714,11 +3714,11 @@
       <c r="L111" s="14"/>
     </row>
     <row r="112" spans="1:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="21"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="24"/>
+      <c r="A112" s="12"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
       <c r="F112" s="6" t="s">
         <v>196</v>
       </c>
@@ -3730,185 +3730,535 @@
       <c r="L112" s="15"/>
     </row>
     <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="11">
+      <c r="A113" s="24">
         <v>35</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="C113" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="D113" s="12" t="s">
+      <c r="D113" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E113" s="12" t="s">
+      <c r="E113" s="22" t="s">
         <v>17</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G113" s="12" t="s">
+      <c r="G113" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="H113" s="10" t="s">
+      <c r="H113" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="I113" s="10" t="s">
+      <c r="I113" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J113" s="10" t="s">
+      <c r="J113" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K113" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L113" s="10" t="s">
+      <c r="K113" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L113" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="11"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
+      <c r="A114" s="24"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
       <c r="F114" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G114" s="12"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10"/>
-      <c r="K114" s="10"/>
-      <c r="L114" s="10"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="23"/>
+      <c r="I114" s="23"/>
+      <c r="J114" s="23"/>
+      <c r="K114" s="23"/>
+      <c r="L114" s="23"/>
     </row>
     <row r="115" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A115" s="11"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
+      <c r="A115" s="24"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
       <c r="F115" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G115" s="12"/>
-      <c r="H115" s="10"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="10"/>
-      <c r="K115" s="10"/>
-      <c r="L115" s="10"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="23"/>
+      <c r="I115" s="23"/>
+      <c r="J115" s="23"/>
+      <c r="K115" s="23"/>
+      <c r="L115" s="23"/>
     </row>
     <row r="116" spans="1:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="11">
+      <c r="A116" s="24">
         <v>36</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="C116" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D116" s="12" t="s">
+      <c r="D116" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E116" s="12" t="s">
+      <c r="E116" s="22" t="s">
         <v>17</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G116" s="12" t="s">
+      <c r="G116" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="H116" s="10" t="s">
+      <c r="H116" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I116" s="10" t="s">
+      <c r="I116" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J116" s="10" t="s">
+      <c r="J116" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="K116" s="10" t="s">
+      <c r="K116" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="L116" s="10" t="s">
+      <c r="L116" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A117" s="11"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
+      <c r="A117" s="24"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
       <c r="F117" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G117" s="12"/>
-      <c r="H117" s="10"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="10"/>
-      <c r="K117" s="10"/>
-      <c r="L117" s="10"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="23"/>
+      <c r="I117" s="23"/>
+      <c r="J117" s="23"/>
+      <c r="K117" s="23"/>
+      <c r="L117" s="23"/>
     </row>
     <row r="118" spans="1:12" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="11">
+      <c r="A118" s="24">
         <v>37</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C118" s="12" t="s">
+      <c r="C118" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="D118" s="12" t="s">
+      <c r="D118" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E118" s="12" t="s">
+      <c r="E118" s="22" t="s">
         <v>17</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G118" s="12" t="s">
+      <c r="G118" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="H118" s="10" t="s">
+      <c r="H118" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I118" s="10" t="s">
+      <c r="I118" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J118" s="10" t="s">
+      <c r="J118" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="K118" s="10" t="s">
+      <c r="K118" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="L118" s="10" t="s">
+      <c r="L118" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="11"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
+      <c r="A119" s="24"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22"/>
       <c r="F119" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G119" s="12"/>
-      <c r="H119" s="10"/>
-      <c r="I119" s="10"/>
-      <c r="J119" s="10"/>
-      <c r="K119" s="10"/>
-      <c r="L119" s="10"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="23"/>
+      <c r="I119" s="23"/>
+      <c r="J119" s="23"/>
+      <c r="K119" s="23"/>
+      <c r="L119" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="374">
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="J45:J47"/>
+    <mergeCell ref="K45:K47"/>
+    <mergeCell ref="L45:L47"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="L42:L44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="K77:K80"/>
+    <mergeCell ref="L77:L80"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="B61:B68"/>
+    <mergeCell ref="A61:A68"/>
+    <mergeCell ref="A69:A76"/>
+    <mergeCell ref="B69:B76"/>
+    <mergeCell ref="C69:C76"/>
+    <mergeCell ref="D69:D76"/>
+    <mergeCell ref="E69:E76"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G69:G76"/>
+    <mergeCell ref="H69:H76"/>
+    <mergeCell ref="I69:I76"/>
+    <mergeCell ref="J69:J76"/>
+    <mergeCell ref="K69:K76"/>
+    <mergeCell ref="L69:L76"/>
+    <mergeCell ref="G61:G68"/>
+    <mergeCell ref="H61:H68"/>
+    <mergeCell ref="I61:I68"/>
+    <mergeCell ref="J61:J68"/>
+    <mergeCell ref="K61:K68"/>
+    <mergeCell ref="L61:L68"/>
+    <mergeCell ref="G113:G115"/>
+    <mergeCell ref="H113:H115"/>
+    <mergeCell ref="I113:I115"/>
+    <mergeCell ref="J113:J115"/>
+    <mergeCell ref="K113:K115"/>
+    <mergeCell ref="L113:L115"/>
+    <mergeCell ref="K110:K112"/>
+    <mergeCell ref="L110:L112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="D113:D115"/>
+    <mergeCell ref="E113:E115"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="H110:H112"/>
+    <mergeCell ref="I110:I112"/>
+    <mergeCell ref="J110:J112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="I118:I119"/>
+    <mergeCell ref="J118:J119"/>
+    <mergeCell ref="K118:K119"/>
+    <mergeCell ref="L118:L119"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="J116:J117"/>
+    <mergeCell ref="K116:K117"/>
+    <mergeCell ref="L116:L117"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="E61:E68"/>
+    <mergeCell ref="D61:D68"/>
+    <mergeCell ref="C61:C68"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="H88:H91"/>
+    <mergeCell ref="I88:I91"/>
+    <mergeCell ref="J88:J91"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="G81:G84"/>
+    <mergeCell ref="H81:H84"/>
+    <mergeCell ref="I81:I84"/>
+    <mergeCell ref="J81:J84"/>
+    <mergeCell ref="G77:G80"/>
+    <mergeCell ref="H77:H80"/>
+    <mergeCell ref="I77:I80"/>
+    <mergeCell ref="J77:J80"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="L85:L87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="G105:G109"/>
+    <mergeCell ref="H105:H109"/>
+    <mergeCell ref="I105:I109"/>
+    <mergeCell ref="E105:E109"/>
+    <mergeCell ref="D105:D109"/>
+    <mergeCell ref="K105:K109"/>
+    <mergeCell ref="L105:L109"/>
+    <mergeCell ref="K102:K104"/>
+    <mergeCell ref="L102:L104"/>
+    <mergeCell ref="E92:E96"/>
+    <mergeCell ref="D92:D96"/>
+    <mergeCell ref="C92:C96"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="E97:E101"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="K81:K84"/>
+    <mergeCell ref="L81:L84"/>
+    <mergeCell ref="E81:E84"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="K97:K101"/>
+    <mergeCell ref="L97:L101"/>
+    <mergeCell ref="K92:K96"/>
+    <mergeCell ref="L92:L96"/>
+    <mergeCell ref="K88:K91"/>
+    <mergeCell ref="L88:L91"/>
+    <mergeCell ref="E88:E91"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="B88:B91"/>
     <mergeCell ref="A92:A96"/>
     <mergeCell ref="A97:A101"/>
     <mergeCell ref="A102:A104"/>
@@ -3933,356 +4283,6 @@
     <mergeCell ref="D97:D101"/>
     <mergeCell ref="C97:C101"/>
     <mergeCell ref="B97:B101"/>
-    <mergeCell ref="E92:E96"/>
-    <mergeCell ref="D92:D96"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="E97:E101"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="K81:K84"/>
-    <mergeCell ref="L81:L84"/>
-    <mergeCell ref="E81:E84"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="G105:G109"/>
-    <mergeCell ref="H105:H109"/>
-    <mergeCell ref="I105:I109"/>
-    <mergeCell ref="E105:E109"/>
-    <mergeCell ref="D105:D109"/>
-    <mergeCell ref="K105:K109"/>
-    <mergeCell ref="L105:L109"/>
-    <mergeCell ref="K102:K104"/>
-    <mergeCell ref="L102:L104"/>
-    <mergeCell ref="K97:K101"/>
-    <mergeCell ref="L97:L101"/>
-    <mergeCell ref="K92:K96"/>
-    <mergeCell ref="L92:L96"/>
-    <mergeCell ref="K88:K91"/>
-    <mergeCell ref="L88:L91"/>
-    <mergeCell ref="E88:E91"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="L85:L87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="E61:E68"/>
-    <mergeCell ref="D61:D68"/>
-    <mergeCell ref="C61:C68"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="G88:G91"/>
-    <mergeCell ref="H88:H91"/>
-    <mergeCell ref="I88:I91"/>
-    <mergeCell ref="J88:J91"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="G81:G84"/>
-    <mergeCell ref="H81:H84"/>
-    <mergeCell ref="I81:I84"/>
-    <mergeCell ref="J81:J84"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="I118:I119"/>
-    <mergeCell ref="J118:J119"/>
-    <mergeCell ref="K118:K119"/>
-    <mergeCell ref="L118:L119"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="I116:I117"/>
-    <mergeCell ref="J116:J117"/>
-    <mergeCell ref="K116:K117"/>
-    <mergeCell ref="L116:L117"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="G113:G115"/>
-    <mergeCell ref="H113:H115"/>
-    <mergeCell ref="I113:I115"/>
-    <mergeCell ref="J113:J115"/>
-    <mergeCell ref="K113:K115"/>
-    <mergeCell ref="L113:L115"/>
-    <mergeCell ref="K110:K112"/>
-    <mergeCell ref="L110:L112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="D113:D115"/>
-    <mergeCell ref="E113:E115"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="H110:H112"/>
-    <mergeCell ref="I110:I112"/>
-    <mergeCell ref="J110:J112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G69:G76"/>
-    <mergeCell ref="H69:H76"/>
-    <mergeCell ref="I69:I76"/>
-    <mergeCell ref="J69:J76"/>
-    <mergeCell ref="K69:K76"/>
-    <mergeCell ref="L69:L76"/>
-    <mergeCell ref="G61:G68"/>
-    <mergeCell ref="H61:H68"/>
-    <mergeCell ref="I61:I68"/>
-    <mergeCell ref="J61:J68"/>
-    <mergeCell ref="K61:K68"/>
-    <mergeCell ref="L61:L68"/>
-    <mergeCell ref="G77:G80"/>
-    <mergeCell ref="H77:H80"/>
-    <mergeCell ref="I77:I80"/>
-    <mergeCell ref="J77:J80"/>
-    <mergeCell ref="K77:K80"/>
-    <mergeCell ref="L77:L80"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="B61:B68"/>
-    <mergeCell ref="A61:A68"/>
-    <mergeCell ref="A69:A76"/>
-    <mergeCell ref="B69:B76"/>
-    <mergeCell ref="C69:C76"/>
-    <mergeCell ref="D69:D76"/>
-    <mergeCell ref="E69:E76"/>
-    <mergeCell ref="E77:E80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="K42:K44"/>
-    <mergeCell ref="L42:L44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="J45:J47"/>
-    <mergeCell ref="K45:K47"/>
-    <mergeCell ref="L45:L47"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="J42:J44"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="211">
   <si>
     <t>№</t>
   </si>
@@ -497,9 +497,6 @@
     <t>Тип теста</t>
   </si>
   <si>
-    <t>Создание новости с заполнением всех полей</t>
-  </si>
-  <si>
     <t>Создание новости с заполнением не всех полей</t>
   </si>
   <si>
@@ -539,9 +536,6 @@
     <t>6. Выбрать время 13:10</t>
   </si>
   <si>
-    <t>7. Заполнить поле "Описание" (!)</t>
-  </si>
-  <si>
     <t>8. Нажать "Сохранить"</t>
   </si>
   <si>
@@ -569,9 +563,6 @@
     <t>Отображается статус "Не активна"</t>
   </si>
   <si>
-    <t>3. Изменить категорию на "День рождения"</t>
-  </si>
-  <si>
     <t>Фильтрация новостей по датам</t>
   </si>
   <si>
@@ -657,6 +648,15 @@
   </si>
   <si>
     <t>3. Нажать "Добавить новость (+)"</t>
+  </si>
+  <si>
+    <t>Создание новости</t>
+  </si>
+  <si>
+    <t>7. Заполнить поле "Описание" (Добавление новости)</t>
+  </si>
+  <si>
+    <t>3. Изменить на рандомную категорию</t>
   </si>
 </sst>
 </file>
@@ -1123,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L119"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81:D84"/>
+    <sheetView tabSelected="1" topLeftCell="C71" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1352,7 +1352,7 @@
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="23"/>
@@ -1368,7 +1368,7 @@
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="23"/>
@@ -1410,7 +1410,7 @@
         <v>67</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G11" s="22" t="s">
         <v>68</v>
@@ -1438,7 +1438,7 @@
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="23"/>
@@ -1674,7 +1674,7 @@
         <v>70</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G22" s="22" t="s">
         <v>23</v>
@@ -1744,10 +1744,10 @@
         <v>70</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H25" s="23" t="s">
         <v>66</v>
@@ -1772,7 +1772,7 @@
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="23"/>
@@ -1814,10 +1814,10 @@
         <v>70</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H28" s="23" t="s">
         <v>34</v>
@@ -1842,7 +1842,7 @@
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
       <c r="F29" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="23"/>
@@ -1884,10 +1884,10 @@
         <v>70</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H31" s="23" t="s">
         <v>34</v>
@@ -1912,7 +1912,7 @@
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
       <c r="F32" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="23"/>
@@ -1982,7 +1982,7 @@
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
       <c r="F35" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G35" s="22"/>
       <c r="H35" s="23"/>
@@ -2024,7 +2024,7 @@
         <v>70</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G37" s="22" t="s">
         <v>23</v>
@@ -2148,7 +2148,7 @@
         <v>70</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G42" s="22" t="s">
         <v>81</v>
@@ -2176,7 +2176,7 @@
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
       <c r="F43" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G43" s="22"/>
       <c r="H43" s="23"/>
@@ -2218,7 +2218,7 @@
         <v>70</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G45" s="22" t="s">
         <v>83</v>
@@ -2246,7 +2246,7 @@
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
       <c r="F46" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G46" s="22"/>
       <c r="H46" s="23"/>
@@ -2329,7 +2329,7 @@
         <v>44</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H49" s="23" t="s">
         <v>66</v>
@@ -2666,7 +2666,7 @@
         <v>147</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>17</v>
@@ -2678,7 +2678,7 @@
         <v>106</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="I61" s="13" t="s">
         <v>11</v>
@@ -2700,7 +2700,7 @@
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
@@ -2716,7 +2716,7 @@
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
       <c r="F63" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
@@ -2732,7 +2732,7 @@
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
       <c r="F64" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
@@ -2748,7 +2748,7 @@
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
       <c r="F65" s="9" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
@@ -2758,90 +2758,90 @@
       <c r="L65" s="14"/>
     </row>
     <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="11"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
       <c r="F66" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-    </row>
-    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="11"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+    </row>
+    <row r="67" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="10">
+        <v>25</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="F67" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="12"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
       <c r="F68" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-    </row>
-    <row r="69" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="10">
-        <v>25</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+    </row>
+    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="11"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
       <c r="F69" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="H69" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I69" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J69" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K69" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L69" s="13" t="s">
-        <v>8</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
     </row>
     <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
@@ -2859,14 +2859,14 @@
       <c r="K70" s="14"/>
       <c r="L70" s="14"/>
     </row>
-    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
       <c r="F71" s="9" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
@@ -2882,7 +2882,7 @@
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
       <c r="F72" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
@@ -2891,14 +2891,14 @@
       <c r="K72" s="14"/>
       <c r="L72" s="14"/>
     </row>
-    <row r="73" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
       <c r="F73" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
@@ -2908,427 +2908,427 @@
       <c r="L73" s="14"/>
     </row>
     <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="11"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
       <c r="F74" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-    </row>
-    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="11"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+    </row>
+    <row r="75" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="10">
+        <v>26</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="F75" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J75" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K75" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L75" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="11"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+    </row>
+    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="11"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+    </row>
+    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="12"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-    </row>
-    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="12"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-    </row>
-    <row r="77" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="10">
-        <v>26</v>
-      </c>
-      <c r="B77" s="16" t="s">
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+    </row>
+    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="10">
+        <v>27</v>
+      </c>
+      <c r="B79" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C77" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="E77" s="16" t="s">
+      <c r="C79" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J79" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K79" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L79" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="11"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+    </row>
+    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="11"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+    </row>
+    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="12"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+    </row>
+    <row r="83" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="10">
+        <v>28</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J83" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K83" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="11"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+    </row>
+    <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="12"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+    </row>
+    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="10">
+        <v>29</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="H86" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J86" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K86" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L86" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="11"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+    </row>
+    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="11"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+    </row>
+    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="12"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+    </row>
+    <row r="90" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="10">
+        <v>30</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E90" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="F90" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G77" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I77" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J77" s="13" t="s">
+      <c r="G90" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J90" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="K77" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L77" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="11"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-    </row>
-    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="11"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14"/>
-    </row>
-    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="12"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
-    </row>
-    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="10">
-        <v>27</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D81" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I81" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J81" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K81" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L81" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="11"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
-      <c r="L82" s="14"/>
-    </row>
-    <row r="83" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A83" s="11"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
-      <c r="L83" s="14"/>
-    </row>
-    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="12"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-    </row>
-    <row r="85" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="10">
-        <v>28</v>
-      </c>
-      <c r="B85" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="H85" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I85" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J85" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K85" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L85" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="11"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14"/>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-    </row>
-    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="12"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-    </row>
-    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="10">
-        <v>29</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D88" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E88" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G88" s="13" t="s">
+      <c r="K90" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L90" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="11"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G91" s="17"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="14"/>
+    </row>
+    <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="11"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="H88" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I88" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J88" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K88" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L88" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="11"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="14"/>
-      <c r="K89" s="14"/>
-      <c r="L89" s="14"/>
-    </row>
-    <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="11"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="14"/>
-      <c r="K90" s="14"/>
-      <c r="L90" s="14"/>
-    </row>
-    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="12"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="15"/>
-      <c r="L91" s="15"/>
-    </row>
-    <row r="92" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="10">
-        <v>30</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D92" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G92" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="H92" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I92" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J92" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K92" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L92" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G92" s="17"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="14"/>
+    </row>
+    <row r="93" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
       <c r="E93" s="17"/>
       <c r="F93" s="9" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="G93" s="17"/>
       <c r="H93" s="14"/>
@@ -3338,90 +3338,90 @@
       <c r="L93" s="14"/>
     </row>
     <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="11"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
+      <c r="A94" s="12"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
       <c r="F94" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G94" s="17"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
-      <c r="K94" s="14"/>
-      <c r="L94" s="14"/>
-    </row>
-    <row r="95" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A95" s="11"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
+        <v>182</v>
+      </c>
+      <c r="G94" s="18"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+    </row>
+    <row r="95" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="10">
+        <v>31</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="F95" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="G95" s="17"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
-      <c r="K95" s="14"/>
-      <c r="L95" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J95" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K95" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L95" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="12"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
       <c r="F96" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="G96" s="18"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="15"/>
-      <c r="L96" s="15"/>
-    </row>
-    <row r="97" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="10">
-        <v>31</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="14"/>
+    </row>
+    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="11"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
       <c r="F97" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G97" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="H97" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I97" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J97" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K97" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L97" s="13" t="s">
-        <v>8</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="14"/>
     </row>
     <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
@@ -3430,7 +3430,7 @@
       <c r="D98" s="17"/>
       <c r="E98" s="17"/>
       <c r="F98" s="9" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="G98" s="14"/>
       <c r="H98" s="14"/>
@@ -3440,169 +3440,169 @@
       <c r="L98" s="14"/>
     </row>
     <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="11"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
+      <c r="A99" s="12"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
       <c r="F99" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="14"/>
-      <c r="K99" s="14"/>
-      <c r="L99" s="14"/>
+        <v>182</v>
+      </c>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
     </row>
     <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="11"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
+      <c r="A100" s="10">
+        <v>32</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="F100" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G100" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="14"/>
-      <c r="K100" s="14"/>
-      <c r="L100" s="14"/>
+      <c r="H100" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J100" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K100" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="12"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
+      <c r="A101" s="11"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
       <c r="F101" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
+        <v>166</v>
+      </c>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
     </row>
     <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="10">
-        <v>32</v>
-      </c>
-      <c r="B102" s="16" t="s">
+      <c r="A102" s="12"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="15"/>
+      <c r="L102" s="15"/>
+    </row>
+    <row r="103" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="10">
+        <v>33</v>
+      </c>
+      <c r="B103" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C102" s="16" t="s">
+      <c r="C103" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="D102" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="E102" s="16" t="s">
+      <c r="D103" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E103" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F102" s="9" t="s">
+      <c r="F103" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G102" s="13" t="s">
+      <c r="G103" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="H102" s="13" t="s">
+      <c r="H103" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I102" s="13" t="s">
+      <c r="I103" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J102" s="13" t="s">
+      <c r="J103" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="K102" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L102" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="11"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="14"/>
-      <c r="K103" s="14"/>
-      <c r="L103" s="14"/>
+      <c r="K103" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L103" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="12"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
+      <c r="A104" s="11"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="14"/>
       <c r="F104" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="15"/>
-      <c r="L104" s="15"/>
-    </row>
-    <row r="105" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="10">
-        <v>33</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C105" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="D105" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>17</v>
-      </c>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="14"/>
+      <c r="K104" s="14"/>
+      <c r="L104" s="14"/>
+    </row>
+    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="11"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="14"/>
       <c r="F105" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G105" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="H105" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I105" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J105" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K105" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L105" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
+      <c r="L105" s="14"/>
+    </row>
+    <row r="106" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
       <c r="E106" s="14"/>
       <c r="F106" s="9" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="G106" s="14"/>
       <c r="H106" s="14"/>
@@ -3612,176 +3612,198 @@
       <c r="L106" s="14"/>
     </row>
     <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="11"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="14"/>
+      <c r="A107" s="12"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="15"/>
       <c r="F107" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="14"/>
-      <c r="K107" s="14"/>
-      <c r="L107" s="14"/>
-    </row>
-    <row r="108" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A108" s="11"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="14"/>
+        <v>182</v>
+      </c>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
+    </row>
+    <row r="108" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="10">
+        <v>34</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>110</v>
+      </c>
       <c r="F108" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="14"/>
-      <c r="K108" s="14"/>
-      <c r="L108" s="14"/>
-    </row>
-    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="12"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="15"/>
-      <c r="L109" s="15"/>
-    </row>
-    <row r="110" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="10">
+      <c r="G108" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H108" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B110" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C110" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D110" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E110" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G110" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="H110" s="13" t="s">
+      <c r="I108" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J108" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K108" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L108" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="11"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G109" s="17"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="14"/>
+      <c r="K109" s="14"/>
+      <c r="L109" s="14"/>
+    </row>
+    <row r="110" spans="1:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="12"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G110" s="18"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="15"/>
+      <c r="L110" s="15"/>
+    </row>
+    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="24">
+        <v>35</v>
+      </c>
+      <c r="B111" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D111" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E111" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G111" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="H111" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I111" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J111" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="K111" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L111" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="24"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G112" s="22"/>
+      <c r="H112" s="23"/>
+      <c r="I112" s="23"/>
+      <c r="J112" s="23"/>
+      <c r="K112" s="23"/>
+      <c r="L112" s="23"/>
+    </row>
+    <row r="113" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A113" s="24"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G113" s="22"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="23"/>
+      <c r="J113" s="23"/>
+      <c r="K113" s="23"/>
+      <c r="L113" s="23"/>
+    </row>
+    <row r="114" spans="1:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="24">
+        <v>36</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E114" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G114" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="H114" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I110" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J110" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K110" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L110" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="11"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G111" s="17"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="14"/>
-      <c r="K111" s="14"/>
-      <c r="L111" s="14"/>
-    </row>
-    <row r="112" spans="1:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="12"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="21"/>
-      <c r="E112" s="21"/>
-      <c r="F112" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="G112" s="18"/>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="15"/>
-      <c r="K112" s="15"/>
-      <c r="L112" s="15"/>
-    </row>
-    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="24">
-        <v>35</v>
-      </c>
-      <c r="B113" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C113" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D113" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E113" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G113" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="H113" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="I113" s="23" t="s">
+      <c r="I114" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J113" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="K113" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="L113" s="23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="24"/>
-      <c r="B114" s="22"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G114" s="22"/>
-      <c r="H114" s="23"/>
-      <c r="I114" s="23"/>
-      <c r="J114" s="23"/>
-      <c r="K114" s="23"/>
-      <c r="L114" s="23"/>
+      <c r="J114" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="K114" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="L114" s="23" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="115" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A115" s="24"/>
@@ -3790,7 +3812,7 @@
       <c r="D115" s="22"/>
       <c r="E115" s="22"/>
       <c r="F115" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G115" s="22"/>
       <c r="H115" s="23"/>
@@ -3799,18 +3821,18 @@
       <c r="K115" s="23"/>
       <c r="L115" s="23"/>
     </row>
-    <row r="116" spans="1:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="24">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B116" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D116" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E116" s="22" t="s">
         <v>17</v>
@@ -3819,7 +3841,7 @@
         <v>116</v>
       </c>
       <c r="G116" s="22" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H116" s="23" t="s">
         <v>34</v>
@@ -3831,20 +3853,20 @@
         <v>119</v>
       </c>
       <c r="K116" s="23" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L116" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="24"/>
       <c r="B117" s="22"/>
       <c r="C117" s="22"/>
       <c r="D117" s="22"/>
       <c r="E117" s="22"/>
       <c r="F117" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G117" s="22"/>
       <c r="H117" s="23"/>
@@ -3852,60 +3874,6 @@
       <c r="J117" s="23"/>
       <c r="K117" s="23"/>
       <c r="L117" s="23"/>
-    </row>
-    <row r="118" spans="1:12" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="24">
-        <v>37</v>
-      </c>
-      <c r="B118" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C118" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D118" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E118" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G118" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="H118" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="I118" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J118" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="K118" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="L118" s="23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="24"/>
-      <c r="B119" s="22"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G119" s="22"/>
-      <c r="H119" s="23"/>
-      <c r="I119" s="23"/>
-      <c r="J119" s="23"/>
-      <c r="K119" s="23"/>
-      <c r="L119" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="374">
@@ -4118,171 +4086,171 @@
     <mergeCell ref="J55:J56"/>
     <mergeCell ref="K55:K56"/>
     <mergeCell ref="L55:L56"/>
-    <mergeCell ref="K77:K80"/>
-    <mergeCell ref="L77:L80"/>
+    <mergeCell ref="K75:K78"/>
+    <mergeCell ref="L75:L78"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="D59:D60"/>
     <mergeCell ref="E59:E60"/>
-    <mergeCell ref="B61:B68"/>
-    <mergeCell ref="A61:A68"/>
-    <mergeCell ref="A69:A76"/>
-    <mergeCell ref="B69:B76"/>
-    <mergeCell ref="C69:C76"/>
-    <mergeCell ref="D69:D76"/>
-    <mergeCell ref="E69:E76"/>
-    <mergeCell ref="E77:E80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B61:B66"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="C67:C74"/>
+    <mergeCell ref="D67:D74"/>
+    <mergeCell ref="E67:E74"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="A75:A78"/>
     <mergeCell ref="H59:H60"/>
     <mergeCell ref="I59:I60"/>
     <mergeCell ref="J59:J60"/>
     <mergeCell ref="K59:K60"/>
     <mergeCell ref="L59:L60"/>
     <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G69:G76"/>
-    <mergeCell ref="H69:H76"/>
-    <mergeCell ref="I69:I76"/>
-    <mergeCell ref="J69:J76"/>
-    <mergeCell ref="K69:K76"/>
-    <mergeCell ref="L69:L76"/>
-    <mergeCell ref="G61:G68"/>
-    <mergeCell ref="H61:H68"/>
-    <mergeCell ref="I61:I68"/>
-    <mergeCell ref="J61:J68"/>
-    <mergeCell ref="K61:K68"/>
-    <mergeCell ref="L61:L68"/>
-    <mergeCell ref="G113:G115"/>
-    <mergeCell ref="H113:H115"/>
-    <mergeCell ref="I113:I115"/>
-    <mergeCell ref="J113:J115"/>
-    <mergeCell ref="K113:K115"/>
-    <mergeCell ref="L113:L115"/>
-    <mergeCell ref="K110:K112"/>
-    <mergeCell ref="L110:L112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="D113:D115"/>
-    <mergeCell ref="E113:E115"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="H110:H112"/>
-    <mergeCell ref="I110:I112"/>
-    <mergeCell ref="J110:J112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="G67:G74"/>
+    <mergeCell ref="H67:H74"/>
+    <mergeCell ref="I67:I74"/>
+    <mergeCell ref="J67:J74"/>
+    <mergeCell ref="K67:K74"/>
+    <mergeCell ref="L67:L74"/>
+    <mergeCell ref="G61:G66"/>
+    <mergeCell ref="H61:H66"/>
+    <mergeCell ref="I61:I66"/>
+    <mergeCell ref="J61:J66"/>
+    <mergeCell ref="K61:K66"/>
+    <mergeCell ref="L61:L66"/>
+    <mergeCell ref="K111:K113"/>
+    <mergeCell ref="L111:L113"/>
+    <mergeCell ref="K108:K110"/>
+    <mergeCell ref="L108:L110"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="G108:G110"/>
+    <mergeCell ref="H108:H110"/>
+    <mergeCell ref="I108:I110"/>
+    <mergeCell ref="J108:J110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="K116:K117"/>
+    <mergeCell ref="L116:L117"/>
+    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="J114:J115"/>
+    <mergeCell ref="K114:K115"/>
+    <mergeCell ref="L114:L115"/>
+    <mergeCell ref="G114:G115"/>
     <mergeCell ref="A116:A117"/>
     <mergeCell ref="B116:B117"/>
     <mergeCell ref="C116:C117"/>
     <mergeCell ref="D116:D117"/>
     <mergeCell ref="E116:E117"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="I118:I119"/>
-    <mergeCell ref="J118:J119"/>
-    <mergeCell ref="K118:K119"/>
-    <mergeCell ref="L118:L119"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="H75:H78"/>
+    <mergeCell ref="I75:I78"/>
+    <mergeCell ref="J75:J78"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="G83:G85"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="G116:G117"/>
     <mergeCell ref="H116:H117"/>
     <mergeCell ref="I116:I117"/>
     <mergeCell ref="J116:J117"/>
-    <mergeCell ref="K116:K117"/>
-    <mergeCell ref="L116:L117"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="E61:E68"/>
-    <mergeCell ref="D61:D68"/>
-    <mergeCell ref="C61:C68"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="G88:G91"/>
-    <mergeCell ref="H88:H91"/>
-    <mergeCell ref="I88:I91"/>
-    <mergeCell ref="J88:J91"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="G81:G84"/>
-    <mergeCell ref="H81:H84"/>
-    <mergeCell ref="I81:I84"/>
-    <mergeCell ref="J81:J84"/>
-    <mergeCell ref="G77:G80"/>
-    <mergeCell ref="H77:H80"/>
-    <mergeCell ref="I77:I80"/>
-    <mergeCell ref="J77:J80"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="L85:L87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="G105:G109"/>
-    <mergeCell ref="H105:H109"/>
-    <mergeCell ref="I105:I109"/>
-    <mergeCell ref="E105:E109"/>
-    <mergeCell ref="D105:D109"/>
-    <mergeCell ref="K105:K109"/>
-    <mergeCell ref="L105:L109"/>
-    <mergeCell ref="K102:K104"/>
-    <mergeCell ref="L102:L104"/>
-    <mergeCell ref="E92:E96"/>
-    <mergeCell ref="D92:D96"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="E97:E101"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="K81:K84"/>
-    <mergeCell ref="L81:L84"/>
-    <mergeCell ref="E81:E84"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="K97:K101"/>
-    <mergeCell ref="L97:L101"/>
-    <mergeCell ref="K92:K96"/>
-    <mergeCell ref="L92:L96"/>
-    <mergeCell ref="K88:K91"/>
-    <mergeCell ref="L88:L91"/>
-    <mergeCell ref="E88:E91"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="J92:J96"/>
-    <mergeCell ref="J97:J101"/>
-    <mergeCell ref="J102:J104"/>
-    <mergeCell ref="J105:J109"/>
-    <mergeCell ref="H102:H104"/>
-    <mergeCell ref="H97:H101"/>
-    <mergeCell ref="H92:H96"/>
-    <mergeCell ref="I92:I96"/>
-    <mergeCell ref="I97:I101"/>
-    <mergeCell ref="I102:I104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="C105:C109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="G92:G96"/>
-    <mergeCell ref="G97:G101"/>
-    <mergeCell ref="G102:G104"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="G111:G113"/>
+    <mergeCell ref="H111:H113"/>
+    <mergeCell ref="I111:I113"/>
+    <mergeCell ref="J111:J113"/>
+    <mergeCell ref="H86:H89"/>
+    <mergeCell ref="I86:I89"/>
+    <mergeCell ref="J86:J89"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="G79:G82"/>
+    <mergeCell ref="H79:H82"/>
+    <mergeCell ref="I79:I82"/>
+    <mergeCell ref="J79:J82"/>
+    <mergeCell ref="E90:E94"/>
+    <mergeCell ref="D90:D94"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="E61:E66"/>
+    <mergeCell ref="D61:D66"/>
+    <mergeCell ref="C61:C66"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="G86:G89"/>
+    <mergeCell ref="G75:G78"/>
+    <mergeCell ref="G103:G107"/>
+    <mergeCell ref="H103:H107"/>
+    <mergeCell ref="I103:I107"/>
+    <mergeCell ref="E103:E107"/>
+    <mergeCell ref="D103:D107"/>
+    <mergeCell ref="K103:K107"/>
+    <mergeCell ref="L103:L107"/>
+    <mergeCell ref="K100:K102"/>
+    <mergeCell ref="L100:L102"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="E95:E99"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="K79:K82"/>
+    <mergeCell ref="L79:L82"/>
+    <mergeCell ref="E79:E82"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="K95:K99"/>
+    <mergeCell ref="L95:L99"/>
+    <mergeCell ref="K90:K94"/>
+    <mergeCell ref="L90:L94"/>
+    <mergeCell ref="K86:K89"/>
+    <mergeCell ref="L86:L89"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="K83:K85"/>
+    <mergeCell ref="L83:L85"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="J90:J94"/>
+    <mergeCell ref="J95:J99"/>
+    <mergeCell ref="J100:J102"/>
+    <mergeCell ref="J103:J107"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="H95:H99"/>
+    <mergeCell ref="H90:H94"/>
+    <mergeCell ref="I90:I94"/>
+    <mergeCell ref="I95:I99"/>
+    <mergeCell ref="I100:I102"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="G90:G94"/>
+    <mergeCell ref="G95:G99"/>
+    <mergeCell ref="G100:G102"/>
+    <mergeCell ref="D95:D99"/>
+    <mergeCell ref="C95:C99"/>
+    <mergeCell ref="B95:B99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
